--- a/QUANGHANH2/excel/CDVT/download/tong-hop-vat-tu-chi-tiet.xlsx
+++ b/QUANGHANH2/excel/CDVT/download/tong-hop-vat-tu-chi-tiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\GitHub\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\CDVT\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <t>Đơn Vị Tính</t>
   </si>
   <si>
-    <t>Số Lượng Cấp</t>
+    <t>Số Lượng Thực Lĩnh</t>
   </si>
 </sst>
 </file>
